--- a/public/uploads/KPI colectores de polvo Junio.xlsx
+++ b/public/uploads/KPI colectores de polvo Junio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\plan matriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233B388-1C45-4762-BE7C-227AC414C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE4CDC-34C3-4BB6-B742-F7DA4C9F2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,8 +273,8 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,6 +285,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,18 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -704,12 +704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -735,7 +735,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -745,7 +745,7 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -755,7 +755,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -765,7 +765,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -775,7 +775,7 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -787,7 +787,7 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -797,7 +797,7 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -809,7 +809,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -819,7 +819,7 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -829,7 +829,7 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -839,10 +839,10 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <v>44707</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -854,7 +854,7 @@
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,7 +884,7 @@
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
@@ -913,7 +913,7 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -923,7 +923,7 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -933,7 +933,7 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -945,7 +945,7 @@
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -955,7 +955,7 @@
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -965,7 +965,7 @@
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -975,7 +975,7 @@
       <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -985,7 +985,7 @@
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -997,7 +997,7 @@
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1007,7 +1007,7 @@
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1017,7 +1017,7 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1027,7 +1027,7 @@
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1073,7 +1073,7 @@
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -1083,7 +1083,7 @@
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
@@ -1093,7 +1093,7 @@
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1103,7 +1103,7 @@
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1113,7 +1113,7 @@
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
@@ -1123,7 +1123,7 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -1135,7 +1135,7 @@
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1145,7 +1145,7 @@
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1293,7 +1293,7 @@
       <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -1303,7 +1303,7 @@
       <c r="C57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
@@ -1313,7 +1313,7 @@
       <c r="C58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
@@ -1323,7 +1323,7 @@
       <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -1335,7 +1335,7 @@
       <c r="C60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
@@ -1345,7 +1345,7 @@
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -1355,7 +1355,7 @@
       <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
@@ -1365,7 +1365,7 @@
       <c r="C63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="11"/>
+      <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -1429,7 +1429,7 @@
       <c r="C69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
@@ -1439,7 +1439,7 @@
       <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
@@ -1449,7 +1449,7 @@
       <c r="C71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
@@ -1459,7 +1459,7 @@
       <c r="C72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -1513,7 +1513,7 @@
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="12"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
@@ -1523,7 +1523,7 @@
       <c r="C78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="12"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -1533,7 +1533,7 @@
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="12"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
@@ -1543,7 +1543,7 @@
       <c r="C80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="12"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
@@ -1553,7 +1553,7 @@
       <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="12"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
@@ -1565,7 +1565,7 @@
       <c r="C82" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="12"/>
+      <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
@@ -1575,7 +1575,7 @@
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="5"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
@@ -1585,7 +1585,7 @@
       <c r="C84" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
@@ -1595,7 +1595,7 @@
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="12"/>
+      <c r="D85" s="5"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
@@ -1607,7 +1607,7 @@
       <c r="C86" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="12"/>
+      <c r="D86" s="5"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
@@ -1617,7 +1617,7 @@
       <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="5"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
@@ -1627,7 +1627,7 @@
       <c r="C88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="5"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
@@ -1637,10 +1637,35 @@
       <c r="C89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="12"/>
+      <c r="D89" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="D14:D18"/>
     <mergeCell ref="A86:A89"/>
     <mergeCell ref="D86:D89"/>
     <mergeCell ref="D43:D46"/>
@@ -1657,31 +1682,6 @@
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="D73:D76"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D77:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="39" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
